--- a/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A014AADC-7871-4173-9081-8A3043ECA9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3C87CE-F087-4BCA-A5D7-AC34674DE785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCAE2D40-C3DA-4C9E-95B5-4EC560FF6552}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6F0771C-5511-4497-B793-EEB4274797C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="530">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,1356 +227,1365 @@
     <t>82,81%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
     <t>0,63%</t>
   </si>
   <si>
@@ -1599,9 +1608,6 @@
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -2034,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643DA5C4-2918-4E91-BDDC-A839200CC0B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF05EE-6AD7-46C5-9C26-489D15AE12BD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4084,7 +4090,7 @@
         <v>6511</v>
       </c>
       <c r="N41" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>17</v>
@@ -4288,7 +4294,7 @@
         <v>6511</v>
       </c>
       <c r="N45" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
@@ -4324,7 +4330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5CA378-04FE-4C4C-A68C-F7BD4453DFA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94619E3F-3852-4CA1-9E76-7A5E73D59607}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,10 +4879,10 @@
         <v>48633</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>111</v>
@@ -5250,10 +5256,10 @@
         <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5274,13 @@
         <v>294566</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -5283,13 +5289,13 @@
         <v>171385</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -5298,13 +5304,13 @@
         <v>465950</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,37 +5384,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5429,13 @@
         <v>255429</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>355</v>
@@ -5438,13 +5444,13 @@
         <v>401312</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>584</v>
@@ -5453,13 +5459,13 @@
         <v>656741</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5480,13 @@
         <v>34536</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5489,13 +5495,13 @@
         <v>39736</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -5504,13 +5510,13 @@
         <v>74271</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,10 +5534,10 @@
         <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5540,13 +5546,13 @@
         <v>34102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5555,13 +5561,13 @@
         <v>86535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>272219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>121</v>
@@ -5591,13 +5597,13 @@
         <v>141050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M26" s="7">
         <v>361</v>
@@ -5606,13 +5612,13 @@
         <v>413269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5731,13 +5737,13 @@
         <v>275114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -5746,13 +5752,13 @@
         <v>383505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -5761,13 +5767,13 @@
         <v>658619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5788,13 @@
         <v>16324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5797,13 +5803,13 @@
         <v>8753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5812,13 +5818,13 @@
         <v>25078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5839,13 @@
         <v>21339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -5848,13 +5854,13 @@
         <v>8051</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -5863,13 +5869,13 @@
         <v>29390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +5890,13 @@
         <v>116651</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -5899,13 +5905,13 @@
         <v>47491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5914,13 +5920,13 @@
         <v>164142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6039,13 +6045,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6057,10 +6063,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6069,10 +6075,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6090,13 +6096,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6105,13 +6111,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6126,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,7 +6168,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6192,13 +6198,13 @@
         <v>2017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6207,13 +6213,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6222,13 +6228,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6353,13 @@
         <v>2047887</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H41" s="7">
         <v>2463</v>
@@ -6362,13 +6368,13 @@
         <v>2653726</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M41" s="7">
         <v>4376</v>
@@ -6377,13 +6383,13 @@
         <v>4701612</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6404,13 @@
         <v>184033</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -6413,13 +6419,13 @@
         <v>154458</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>309</v>
@@ -6428,13 +6434,13 @@
         <v>338491</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6455,13 @@
         <v>215180</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H43" s="7">
         <v>149</v>
@@ -6464,13 +6470,13 @@
         <v>158026</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>351</v>
@@ -6482,10 +6488,10 @@
         <v>79</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6506,13 @@
         <v>979680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H44" s="7">
         <v>548</v>
@@ -6515,13 +6521,13 @@
         <v>592100</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>1471</v>
@@ -6530,13 +6536,13 @@
         <v>1571779</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5591828C-5BDF-403A-9D55-320E601D84F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB24F97-D426-44D3-A78E-B938D511FBFE}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6631,7 +6637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6759,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6789,13 +6795,13 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
         <v>311</v>
@@ -6804,13 +6810,13 @@
         <v>303900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -6819,13 +6825,13 @@
         <v>644254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +6846,13 @@
         <v>26496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6855,13 +6861,13 @@
         <v>26455</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -6870,13 +6876,13 @@
         <v>52951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6897,13 @@
         <v>17554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6906,13 +6912,13 @@
         <v>22511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -6921,13 +6927,13 @@
         <v>40065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6948,13 @@
         <v>35060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -6957,13 +6963,13 @@
         <v>42888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6972,13 +6978,13 @@
         <v>77948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,7 +7073,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7082,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7103,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7112,13 +7118,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7127,13 +7133,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7154,13 @@
         <v>96413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -7163,13 +7169,13 @@
         <v>82933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -7178,13 +7184,13 @@
         <v>179346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7205,13 @@
         <v>72979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7214,13 +7220,13 @@
         <v>50842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -7232,10 +7238,10 @@
         <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7256,13 @@
         <v>174793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -7265,13 +7271,13 @@
         <v>139942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7280,13 +7286,13 @@
         <v>314735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7405,13 +7411,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -7420,13 +7426,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -7435,13 +7441,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7462,13 @@
         <v>96462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -7471,13 +7477,13 @@
         <v>81510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -7486,13 +7492,13 @@
         <v>177972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7513,13 @@
         <v>113864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -7522,13 +7528,13 @@
         <v>69758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -7537,13 +7543,13 @@
         <v>183622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7564,13 @@
         <v>249262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -7573,13 +7579,13 @@
         <v>166146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -7588,13 +7594,13 @@
         <v>415408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7713,13 +7719,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -7728,28 +7734,28 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
       </c>
       <c r="N23" s="7">
-        <v>684279</v>
+        <v>684280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,13 +7770,13 @@
         <v>84772</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -7779,28 +7785,28 @@
         <v>74545</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
       </c>
       <c r="N24" s="7">
-        <v>159317</v>
+        <v>159318</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +7821,13 @@
         <v>70199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -7830,13 +7836,13 @@
         <v>48918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -7845,13 +7851,13 @@
         <v>119117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +7872,13 @@
         <v>212757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -7881,28 +7887,28 @@
         <v>119655</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>301</v>
       </c>
       <c r="N26" s="7">
-        <v>332411</v>
+        <v>332412</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,7 +7950,7 @@
         <v>1184</v>
       </c>
       <c r="N27" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7991,7 +7997,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8021,13 +8027,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8036,13 +8042,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8051,13 +8057,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8078,13 @@
         <v>39452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -8087,13 +8093,13 @@
         <v>32245</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>440</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -8105,10 +8111,10 @@
         <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8129,13 @@
         <v>28576</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>286</v>
+        <v>89</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -8138,13 +8144,13 @@
         <v>27836</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -8153,13 +8159,13 @@
         <v>56412</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>303</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8180,13 @@
         <v>97698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -8189,13 +8195,13 @@
         <v>45797</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>87</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -8204,13 +8210,13 @@
         <v>143496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,10 +8335,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -8344,13 +8350,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -8359,13 +8365,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,13 +8437,13 @@
         <v>1050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -8446,13 +8452,13 @@
         <v>2203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>466</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -8464,10 +8470,10 @@
         <v>43</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,13 +8488,13 @@
         <v>4935</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>476</v>
+        <v>221</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8500,10 +8506,10 @@
         <v>13</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -8512,13 +8518,13 @@
         <v>7922</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,13 +8643,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -8652,13 +8658,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -8667,13 +8673,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8688,13 +8694,13 @@
         <v>343595</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H42" s="7">
         <v>293</v>
@@ -8703,13 +8709,13 @@
         <v>297688</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>485</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>486</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M42" s="7">
         <v>606</v>
@@ -8718,13 +8724,13 @@
         <v>641283</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>418</v>
+        <v>489</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8739,13 +8745,13 @@
         <v>304222</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>95</v>
+        <v>491</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -8754,13 +8760,13 @@
         <v>222067</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M43" s="7">
         <v>505</v>
@@ -8769,13 +8775,13 @@
         <v>526290</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>499</v>
+        <v>113</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>317</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8790,13 +8796,13 @@
         <v>774505</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H44" s="7">
         <v>501</v>
@@ -8805,13 +8811,13 @@
         <v>517416</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M44" s="7">
         <v>1225</v>
@@ -8826,7 +8832,7 @@
         <v>505</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>343</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8904,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20B4224-E1C6-4DDC-BBD9-382321BB981A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B17D74-DFDE-42C2-B3A3-FC7E60E2A31F}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8921,7 +8927,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9031,7 +9037,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -9046,7 +9052,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>509</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -9061,7 +9067,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -9085,7 +9091,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9100,7 +9106,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9115,7 +9121,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,7 +9142,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9151,7 +9157,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9166,7 +9172,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,7 +9193,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9202,7 +9208,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9217,7 +9223,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,7 +9244,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9253,7 +9259,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9268,7 +9274,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9339,7 +9345,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -9354,7 +9360,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -9369,7 +9375,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -9393,7 +9399,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9408,7 +9414,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9423,7 +9429,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,7 +9450,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9459,7 +9465,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9474,7 +9480,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9495,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9510,7 +9516,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9525,7 +9531,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,7 +9552,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9561,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9576,7 +9582,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,7 +9653,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -9662,7 +9668,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -9677,7 +9683,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -9701,7 +9707,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9716,7 +9722,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9731,7 +9737,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,7 +9758,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9767,7 +9773,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9782,7 +9788,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,7 +9809,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9818,7 +9824,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9833,7 +9839,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,7 +9860,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9869,7 +9875,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9884,7 +9890,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9970,7 +9976,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9985,7 +9991,7 @@
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -10024,7 +10030,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10039,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10075,7 +10081,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10090,7 +10096,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10126,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10141,7 +10147,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10177,7 +10183,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10192,7 +10198,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,7 +10299,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -10347,7 +10353,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,7 +10404,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,7 +10455,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10500,7 +10506,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10586,7 +10592,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -10601,7 +10607,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -10640,7 +10646,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10655,7 +10661,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10691,7 +10697,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10706,7 +10712,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10742,7 +10748,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10757,7 +10763,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10793,7 +10799,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10808,7 +10814,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10894,7 +10900,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -10909,7 +10915,7 @@
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -10948,7 +10954,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -10963,7 +10969,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10999,7 +11005,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11014,7 +11020,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11050,7 +11056,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11065,7 +11071,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11101,7 +11107,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11116,7 +11122,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3C87CE-F087-4BCA-A5D7-AC34674DE785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9472FB3B-21BC-478A-8C13-1EBB14BB690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6F0771C-5511-4497-B793-EEB4274797C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43C9DA86-B1AF-46D7-9987-6FE79F107E65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="527">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,1387 +227,1378 @@
     <t>82,81%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -2040,7 +2031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AF05EE-6AD7-46C5-9C26-489D15AE12BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718F2338-7427-43C8-853B-0E61500C30B0}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4060,7 +4051,7 @@
         <v>3214</v>
       </c>
       <c r="D41" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4264,7 +4255,7 @@
         <v>3214</v>
       </c>
       <c r="D45" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -4330,7 +4321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94619E3F-3852-4CA1-9E76-7A5E73D59607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52274DB8-7225-4FB8-9EBB-2CCF18E8B14A}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4640,10 +4631,10 @@
         <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4649,13 @@
         <v>38745</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4673,13 +4664,13 @@
         <v>56136</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4688,13 +4679,13 @@
         <v>94881</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4813,13 +4804,13 @@
         <v>312954</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4828,13 +4819,13 @@
         <v>345950</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -4843,13 +4834,13 @@
         <v>658904</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4855,13 @@
         <v>61109</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4879,7 +4870,7 @@
         <v>48633</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>110</v>
@@ -5172,13 +5163,13 @@
         <v>55987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5187,13 +5178,13 @@
         <v>46448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5202,13 +5193,13 @@
         <v>102434</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5214,13 @@
         <v>59604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -5238,13 +5229,13 @@
         <v>57488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5253,13 +5244,13 @@
         <v>117092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5265,13 @@
         <v>294566</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -5289,13 +5280,13 @@
         <v>171385</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -5304,13 +5295,13 @@
         <v>465950</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,37 +5375,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5420,13 @@
         <v>255429</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>355</v>
@@ -5444,13 +5435,13 @@
         <v>401312</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>584</v>
@@ -5459,13 +5450,13 @@
         <v>656741</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5471,13 @@
         <v>34536</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5495,13 +5486,13 @@
         <v>39736</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -5510,13 +5501,13 @@
         <v>74271</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5522,13 @@
         <v>52433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5546,13 +5537,13 @@
         <v>34102</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5561,13 +5552,13 @@
         <v>86535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5573,13 @@
         <v>272219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>121</v>
@@ -5597,13 +5588,13 @@
         <v>141050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>361</v>
@@ -5612,13 +5603,13 @@
         <v>413269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +5698,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5737,13 +5728,13 @@
         <v>275114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -5752,13 +5743,13 @@
         <v>383505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -5767,13 +5758,13 @@
         <v>658619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5779,13 @@
         <v>16324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5803,13 +5794,13 @@
         <v>8753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5818,13 +5809,13 @@
         <v>25078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5830,13 @@
         <v>21339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -5854,13 +5845,13 @@
         <v>8051</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -5869,13 +5860,13 @@
         <v>29390</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5881,13 @@
         <v>116651</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -5905,13 +5896,13 @@
         <v>47491</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5920,13 +5911,13 @@
         <v>164142</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6006,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6045,13 +6036,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6063,10 +6054,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6075,10 +6066,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6096,13 +6087,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6111,13 +6102,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6132,7 +6123,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6159,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6198,13 +6189,13 @@
         <v>2017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6213,13 +6204,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6228,13 +6219,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6353,13 +6344,13 @@
         <v>2047887</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
         <v>2463</v>
@@ -6368,13 +6359,13 @@
         <v>2653726</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M41" s="7">
         <v>4376</v>
@@ -6383,13 +6374,13 @@
         <v>4701612</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,13 +6395,13 @@
         <v>184033</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -6419,13 +6410,13 @@
         <v>154458</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M42" s="7">
         <v>309</v>
@@ -6434,13 +6425,13 @@
         <v>338491</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6455,13 +6446,13 @@
         <v>215180</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H43" s="7">
         <v>149</v>
@@ -6470,13 +6461,13 @@
         <v>158026</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M43" s="7">
         <v>351</v>
@@ -6488,10 +6479,10 @@
         <v>79</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6497,13 @@
         <v>979680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H44" s="7">
         <v>548</v>
@@ -6521,13 +6512,13 @@
         <v>592100</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>1471</v>
@@ -6536,13 +6527,13 @@
         <v>1571779</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,7 +6611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB24F97-D426-44D3-A78E-B938D511FBFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABBB2A2-47EF-4BAC-8977-0BE2F1C63A75}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6637,7 +6628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6765,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6795,13 +6786,13 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>311</v>
@@ -6810,13 +6801,13 @@
         <v>303900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -6825,13 +6816,13 @@
         <v>644254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,13 +6837,13 @@
         <v>26496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6861,13 +6852,13 @@
         <v>26455</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -6876,13 +6867,13 @@
         <v>52951</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6897,13 +6888,13 @@
         <v>17554</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6912,13 +6903,13 @@
         <v>22511</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -6927,13 +6918,13 @@
         <v>40065</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6939,13 @@
         <v>35060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -6963,13 +6954,13 @@
         <v>42888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6978,13 +6969,13 @@
         <v>77948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7058,7 +7049,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7073,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7088,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7094,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7118,13 +7109,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7133,13 +7124,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7154,13 +7145,13 @@
         <v>96413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -7169,13 +7160,13 @@
         <v>82933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -7184,13 +7175,13 @@
         <v>179346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7205,13 +7196,13 @@
         <v>72979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7220,13 +7211,13 @@
         <v>50842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -7235,13 +7226,13 @@
         <v>123821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7247,13 @@
         <v>174793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -7271,13 +7262,13 @@
         <v>139942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7286,13 +7277,13 @@
         <v>314735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,7 +7357,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7411,13 +7402,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -7426,13 +7417,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -7441,13 +7432,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7453,13 @@
         <v>96462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -7477,13 +7468,13 @@
         <v>81510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -7492,13 +7483,13 @@
         <v>177972</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7504,13 @@
         <v>113864</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -7528,13 +7519,13 @@
         <v>69758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -7543,13 +7534,13 @@
         <v>183622</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7555,13 @@
         <v>249262</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -7579,13 +7570,13 @@
         <v>166146</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -7594,13 +7585,13 @@
         <v>415408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7719,13 +7710,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -7734,28 +7725,28 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
       </c>
       <c r="N23" s="7">
-        <v>684280</v>
+        <v>684279</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7761,13 @@
         <v>84772</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -7785,28 +7776,28 @@
         <v>74545</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
       </c>
       <c r="N24" s="7">
-        <v>159318</v>
+        <v>159317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7812,13 @@
         <v>70199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -7836,7 +7827,7 @@
         <v>48918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>413</v>
@@ -7899,7 +7890,7 @@
         <v>301</v>
       </c>
       <c r="N26" s="7">
-        <v>332412</v>
+        <v>332411</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>424</v>
@@ -7950,7 +7941,7 @@
         <v>1184</v>
       </c>
       <c r="N27" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -8063,7 +8054,7 @@
         <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>436</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8078,13 +8069,13 @@
         <v>39452</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -8093,13 +8084,13 @@
         <v>32245</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -8108,13 +8099,13 @@
         <v>71697</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8120,13 @@
         <v>28576</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>89</v>
+        <v>442</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -8144,13 +8135,13 @@
         <v>27836</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -8159,13 +8150,13 @@
         <v>56412</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>303</v>
+        <v>448</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8171,13 @@
         <v>97698</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -8195,13 +8186,13 @@
         <v>45797</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -8210,13 +8201,13 @@
         <v>143496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,10 +8326,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>457</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -8350,13 +8341,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>460</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -8365,13 +8356,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8428,13 @@
         <v>1050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -8452,13 +8443,13 @@
         <v>2203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -8470,10 +8461,10 @@
         <v>43</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,13 +8479,13 @@
         <v>4935</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8506,10 +8497,10 @@
         <v>13</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -8518,13 +8509,13 @@
         <v>7922</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8634,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -8658,13 +8649,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>478</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -8673,13 +8664,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8694,13 +8685,13 @@
         <v>343595</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H42" s="7">
         <v>293</v>
@@ -8709,13 +8700,13 @@
         <v>297688</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M42" s="7">
         <v>606</v>
@@ -8724,13 +8715,13 @@
         <v>641283</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8736,13 @@
         <v>304222</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -8760,13 +8751,13 @@
         <v>222067</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>122</v>
+        <v>490</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M43" s="7">
         <v>505</v>
@@ -8775,13 +8766,13 @@
         <v>526290</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>113</v>
+        <v>494</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,13 +8787,13 @@
         <v>774505</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>499</v>
+        <v>236</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H44" s="7">
         <v>501</v>
@@ -8811,13 +8802,13 @@
         <v>517416</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>502</v>
+        <v>374</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="M44" s="7">
         <v>1225</v>
@@ -8826,13 +8817,13 @@
         <v>1291921</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,7 +8901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B17D74-DFDE-42C2-B3A3-FC7E60E2A31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C68EC4-79DE-49E2-8684-129351371653}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8927,7 +8918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9037,7 +9028,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -9052,7 +9043,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -9067,7 +9058,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -9091,7 +9082,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9106,7 +9097,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9121,7 +9112,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>512</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,7 +9133,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9157,7 +9148,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9172,7 +9163,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>512</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9193,7 +9184,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9208,7 +9199,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9223,7 +9214,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>512</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9244,7 +9235,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9259,7 +9250,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>218</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9274,7 +9265,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9345,7 +9336,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -9360,7 +9351,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>460</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -9375,7 +9366,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -9399,7 +9390,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9414,7 +9405,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9429,7 +9420,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9450,7 +9441,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9465,7 +9456,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9480,7 +9471,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9501,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9516,7 +9507,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9531,7 +9522,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9552,7 +9543,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9567,7 +9558,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9582,7 +9573,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,7 +9644,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -9668,7 +9659,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -9683,7 +9674,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -9707,7 +9698,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9722,7 +9713,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9737,7 +9728,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,7 +9749,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9773,7 +9764,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9788,7 +9779,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9809,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9824,7 +9815,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9839,7 +9830,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9875,7 +9866,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9890,7 +9881,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,7 +9967,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>519</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9985,13 +9976,13 @@
         <v>1806</v>
       </c>
       <c r="N22" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -10030,7 +10021,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10045,7 +10036,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,7 +10072,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10096,7 +10087,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10132,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10147,7 +10138,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10183,7 +10174,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10198,7 +10189,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10240,7 +10231,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -10299,7 +10290,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -10353,7 +10344,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10404,7 +10395,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10455,7 +10446,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10506,7 +10497,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10571,7 +10562,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -10592,7 +10583,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -10607,7 +10598,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -10646,7 +10637,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10661,7 +10652,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10697,7 +10688,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10712,7 +10703,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10748,7 +10739,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10763,7 +10754,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10799,7 +10790,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10814,7 +10805,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10826,7 +10817,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -10900,7 +10891,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -10909,13 +10900,13 @@
         <v>8743</v>
       </c>
       <c r="N40" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -10954,7 +10945,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -10969,7 +10960,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11005,7 +10996,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11020,7 +11011,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11056,7 +11047,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11071,7 +11062,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11107,7 +11098,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11122,7 +11113,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11164,7 +11155,7 @@
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9472FB3B-21BC-478A-8C13-1EBB14BB690B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF98612D-55E5-4852-B093-8EF47B69690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43C9DA86-B1AF-46D7-9987-6FE79F107E65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9F2346C-90EE-447C-BEE2-A95235D9FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="528">
   <si>
     <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -227,1351 +227,1354 @@
     <t>82,81%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -2031,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718F2338-7427-43C8-853B-0E61500C30B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C908C580-1B10-433B-A9D3-BC365794B784}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4051,7 +4054,7 @@
         <v>3214</v>
       </c>
       <c r="D41" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
@@ -4081,7 +4084,7 @@
         <v>6511</v>
       </c>
       <c r="N41" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>17</v>
@@ -4255,7 +4258,7 @@
         <v>3214</v>
       </c>
       <c r="D45" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>19</v>
@@ -4285,7 +4288,7 @@
         <v>6511</v>
       </c>
       <c r="N45" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>
@@ -4321,7 +4324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52274DB8-7225-4FB8-9EBB-2CCF18E8B14A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D3412F-17D0-4050-BBAC-8B8C9C96D0DA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4631,10 +4634,10 @@
         <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4652,13 @@
         <v>38745</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4664,13 +4667,13 @@
         <v>56136</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4679,13 +4682,13 @@
         <v>94881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,7 +4777,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4804,13 +4807,13 @@
         <v>312954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4819,13 +4822,13 @@
         <v>345950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -4834,13 +4837,13 @@
         <v>658904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4858,13 @@
         <v>61109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4870,10 +4873,10 @@
         <v>48633</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>111</v>
@@ -5163,13 +5166,13 @@
         <v>55987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5178,13 +5181,13 @@
         <v>46448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5193,13 +5196,13 @@
         <v>102434</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5217,13 @@
         <v>59604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -5229,13 +5232,13 @@
         <v>57488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5244,13 +5247,13 @@
         <v>117092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5268,13 @@
         <v>294566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -5280,13 +5283,13 @@
         <v>171385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -5295,13 +5298,13 @@
         <v>465950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5378,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5390,7 +5393,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5405,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5423,13 @@
         <v>255429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>355</v>
@@ -5435,13 +5438,13 @@
         <v>401312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>584</v>
@@ -5450,13 +5453,13 @@
         <v>656741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5474,13 @@
         <v>34536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5486,13 +5489,13 @@
         <v>39736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -5501,13 +5504,13 @@
         <v>74271</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5525,13 @@
         <v>52433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5537,13 +5540,13 @@
         <v>34102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5552,13 +5555,13 @@
         <v>86535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5576,13 @@
         <v>272219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7">
         <v>121</v>
@@ -5588,13 +5591,13 @@
         <v>141050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>361</v>
@@ -5603,13 +5606,13 @@
         <v>413269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5701,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5728,13 +5731,13 @@
         <v>275114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -5743,13 +5746,13 @@
         <v>383505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -5758,13 +5761,13 @@
         <v>658619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5782,13 @@
         <v>16324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5794,13 +5797,13 @@
         <v>8753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5809,13 +5812,13 @@
         <v>25078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5833,13 @@
         <v>21339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -5845,13 +5848,13 @@
         <v>8051</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -5860,13 +5863,13 @@
         <v>29390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5884,13 @@
         <v>116651</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -5896,13 +5899,13 @@
         <v>47491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5911,13 +5914,13 @@
         <v>164142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6036,13 +6039,13 @@
         <v>556621</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <v>691</v>
@@ -6054,10 +6057,10 @@
         <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>1192</v>
@@ -6066,10 +6069,10 @@
         <v>1296758</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>31</v>
@@ -6087,13 +6090,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6102,13 +6105,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6123,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6162,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6189,13 +6192,13 @@
         <v>2017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6204,13 +6207,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6219,13 +6222,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6347,13 @@
         <v>2047887</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>2463</v>
@@ -6359,13 +6362,13 @@
         <v>2653726</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M41" s="7">
         <v>4376</v>
@@ -6374,13 +6377,13 @@
         <v>4701612</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6398,13 @@
         <v>184033</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -6410,13 +6413,13 @@
         <v>154458</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>309</v>
@@ -6425,13 +6428,13 @@
         <v>338491</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6449,13 @@
         <v>215180</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>149</v>
@@ -6461,13 +6464,13 @@
         <v>158026</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>351</v>
@@ -6479,10 +6482,10 @@
         <v>79</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6500,13 @@
         <v>979680</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>548</v>
@@ -6512,13 +6515,13 @@
         <v>592100</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M44" s="7">
         <v>1471</v>
@@ -6527,13 +6530,13 @@
         <v>1571779</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,7 +6614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABBB2A2-47EF-4BAC-8977-0BE2F1C63A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5246F7-83E5-4226-BE61-8898EAC04ADC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6628,7 +6631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6756,7 +6759,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6786,13 +6789,13 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>311</v>
@@ -6801,13 +6804,13 @@
         <v>303900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -6816,13 +6819,13 @@
         <v>644254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6840,13 @@
         <v>26496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6852,13 +6855,13 @@
         <v>26455</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -6867,13 +6870,13 @@
         <v>52951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6891,13 @@
         <v>17554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6903,13 +6906,13 @@
         <v>22511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -6918,13 +6921,13 @@
         <v>40065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6942,13 @@
         <v>35060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -6954,13 +6957,13 @@
         <v>42888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6969,13 +6972,13 @@
         <v>77948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7052,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7064,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7079,7 +7082,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7097,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7109,13 +7112,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7124,13 +7127,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7148,13 @@
         <v>96413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -7160,13 +7163,13 @@
         <v>82933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -7175,13 +7178,13 @@
         <v>179346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7199,13 @@
         <v>72979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7211,13 +7214,13 @@
         <v>50842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -7226,13 +7229,13 @@
         <v>123821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,13 +7250,13 @@
         <v>174793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -7262,13 +7265,13 @@
         <v>139942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7277,13 +7280,13 @@
         <v>314735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,7 +7360,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7402,13 +7405,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -7417,13 +7420,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -7432,13 +7435,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7456,13 @@
         <v>96462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -7468,13 +7471,13 @@
         <v>81510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -7483,13 +7486,13 @@
         <v>177972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7507,13 @@
         <v>113864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -7519,13 +7522,13 @@
         <v>69758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -7534,13 +7537,13 @@
         <v>183622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7555,13 +7558,13 @@
         <v>249262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -7570,13 +7573,13 @@
         <v>166146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -7585,13 +7588,13 @@
         <v>415408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7710,13 +7713,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -7725,13 +7728,13 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
@@ -7740,13 +7743,13 @@
         <v>684279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7764,13 @@
         <v>84772</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -7776,13 +7779,13 @@
         <v>74545</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>186</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>318</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -7791,13 +7794,13 @@
         <v>159317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7815,13 @@
         <v>70199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>311</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -7827,13 +7830,13 @@
         <v>48918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -7842,13 +7845,13 @@
         <v>119117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7863,13 +7866,13 @@
         <v>212757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -7878,13 +7881,13 @@
         <v>119655</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>301</v>
@@ -7893,13 +7896,13 @@
         <v>332411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7988,7 +7991,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8018,13 +8021,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8033,13 +8036,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8048,13 +8051,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8072,13 @@
         <v>39452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -8084,13 +8087,13 @@
         <v>32245</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>438</v>
+        <v>116</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -8099,13 +8102,13 @@
         <v>71697</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8123,13 @@
         <v>28576</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -8135,13 +8138,13 @@
         <v>27836</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>445</v>
+        <v>316</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>446</v>
+        <v>312</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -8150,13 +8153,13 @@
         <v>56412</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8174,13 @@
         <v>97698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -8186,13 +8189,13 @@
         <v>45797</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>346</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -8201,13 +8204,13 @@
         <v>143496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,10 +8329,10 @@
         <v>585343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>464</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>18</v>
@@ -8341,13 +8344,13 @@
         <v>772741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>467</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>29</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>1271</v>
@@ -8356,13 +8359,13 @@
         <v>1358083</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8428,13 +8431,13 @@
         <v>1050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -8443,13 +8446,13 @@
         <v>2203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -8461,10 +8464,10 @@
         <v>43</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8479,13 +8482,13 @@
         <v>4935</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8497,10 +8500,10 @@
         <v>13</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>467</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>8</v>
@@ -8509,13 +8512,13 @@
         <v>7922</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,13 +8637,13 @@
         <v>1972028</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="H41" s="7">
         <v>2325</v>
@@ -8649,13 +8652,13 @@
         <v>2507370</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>484</v>
       </c>
       <c r="M41" s="7">
         <v>4233</v>
@@ -8664,13 +8667,13 @@
         <v>4479398</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8685,13 +8688,13 @@
         <v>343595</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="H42" s="7">
         <v>293</v>
@@ -8700,13 +8703,13 @@
         <v>297688</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>481</v>
+        <v>312</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M42" s="7">
         <v>606</v>
@@ -8715,13 +8718,13 @@
         <v>641283</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8736,13 +8739,13 @@
         <v>304222</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>487</v>
+        <v>95</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H43" s="7">
         <v>219</v>
@@ -8751,13 +8754,13 @@
         <v>222067</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M43" s="7">
         <v>505</v>
@@ -8766,13 +8769,13 @@
         <v>526290</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>495</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8787,13 +8790,13 @@
         <v>774505</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>236</v>
+        <v>501</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H44" s="7">
         <v>501</v>
@@ -8802,13 +8805,13 @@
         <v>517416</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>499</v>
+        <v>391</v>
       </c>
       <c r="M44" s="7">
         <v>1225</v>
@@ -8817,13 +8820,13 @@
         <v>1291921</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>502</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8901,7 +8904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C68EC4-79DE-49E2-8684-129351371653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8EA15-C826-45D0-8199-87673CE44DF8}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8918,7 +8921,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9028,7 +9031,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -9043,7 +9046,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>505</v>
+        <v>250</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -9058,7 +9061,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -9082,7 +9085,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9097,7 +9100,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9112,7 +9115,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9148,7 +9151,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9163,7 +9166,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,7 +9187,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9199,7 +9202,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9214,7 +9217,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9235,7 +9238,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9250,7 +9253,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9265,7 +9268,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,7 +9339,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -9351,7 +9354,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -9366,7 +9369,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -9390,7 +9393,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9405,7 +9408,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9420,7 +9423,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,7 +9444,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9456,7 +9459,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9471,7 +9474,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9492,7 +9495,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9507,7 +9510,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9522,7 +9525,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9543,7 +9546,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9558,7 +9561,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9573,7 +9576,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,7 +9647,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -9659,7 +9662,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -9674,7 +9677,7 @@
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -9698,7 +9701,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9713,7 +9716,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9728,7 +9731,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9749,7 +9752,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9764,7 +9767,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9779,7 +9782,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9800,7 +9803,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9815,7 +9818,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9830,7 +9833,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,7 +9854,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9866,7 +9869,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9881,7 +9884,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9967,7 +9970,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9976,13 +9979,13 @@
         <v>1806</v>
       </c>
       <c r="N22" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -10021,7 +10024,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10036,7 +10039,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10072,7 +10075,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10087,7 +10090,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10138,7 +10141,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10174,7 +10177,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10189,7 +10192,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10231,7 +10234,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -10290,7 +10293,7 @@
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -10344,7 +10347,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10395,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,7 +10449,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10497,7 +10500,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,7 +10565,7 @@
         <v>1028</v>
       </c>
       <c r="D34" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -10583,7 +10586,7 @@
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
@@ -10598,7 +10601,7 @@
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -10637,7 +10640,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10652,7 +10655,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10688,7 +10691,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10703,7 +10706,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10739,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10754,7 +10757,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10790,7 +10793,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10805,7 +10808,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10817,7 +10820,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -10891,7 +10894,7 @@
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
@@ -10900,13 +10903,13 @@
         <v>8743</v>
       </c>
       <c r="N40" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -10945,7 +10948,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -10960,7 +10963,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10996,7 +10999,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11011,7 +11014,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11047,7 +11050,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11062,7 +11065,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11098,7 +11101,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11113,7 +11116,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11155,7 +11158,7 @@
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF98612D-55E5-4852-B093-8EF47B69690E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01319FDD-0AF9-4C58-A33B-3D19E5D928A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9F2346C-90EE-447C-BEE2-A95235D9FDBF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA60175C-5CD8-47BE-938A-04EA8EAAA5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="528">
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="556">
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>No recogida</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>No recogida en edición</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,7 +89,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>No Procede</t>
+    <t>No procede</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,16 +107,16 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>ROJO</t>
-  </si>
-  <si>
-    <t>AMARILLO</t>
-  </si>
-  <si>
-    <t>VERDE</t>
-  </si>
-  <si>
-    <t>25/34</t>
+    <t>Exposición psicosocial más desfavorable para la salud</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial intermedia</t>
+  </si>
+  <si>
+    <t>Exposición psicosocial más favorable para la salud</t>
+  </si>
+  <si>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -137,7 +137,7 @@
     <t>99,85%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -152,7 +152,7 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -161,7 +161,7 @@
     <t>99,6%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -182,1410 +182,1497 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>CoTrAQ- Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Trabajo activo y posibilidades de desarrollo en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
     <t>99,65%</t>
   </si>
   <si>
@@ -1598,9 +1685,6 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
     <t>99,83%</t>
   </si>
   <si>
@@ -1610,7 +1694,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,93%</t>
+    <t>99,78%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -2034,8 +2118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C908C580-1B10-433B-A9D3-BC365794B784}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8233E6C5-E4A1-42FC-8197-8B33B65AA2F1}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3719,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3734,7 +3818,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,46 +3827,46 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D35" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I35" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N35" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>19</v>
@@ -3821,7 +3905,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3836,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3887,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3938,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,10 +4031,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D39" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -3962,10 +4046,10 @@
         <v>19</v>
       </c>
       <c r="H39" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I39" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>19</v>
@@ -3977,10 +4061,10 @@
         <v>19</v>
       </c>
       <c r="M39" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N39" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -3994,7 +4078,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4012,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4027,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4042,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,46 +4135,46 @@
         <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D41" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I41" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M41" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N41" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>19</v>
@@ -4114,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -4129,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -4144,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -4180,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -4195,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -4231,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -4246,7 +4330,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,63 +4339,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>220</v>
+      </c>
+      <c r="D45" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="7">
+        <v>290</v>
+      </c>
+      <c r="I45" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="7">
+        <v>510</v>
+      </c>
+      <c r="N45" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
         <v>3214</v>
       </c>
-      <c r="D45" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D47" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="7">
         <v>3297</v>
       </c>
-      <c r="I45" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I47" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="7">
         <v>6511</v>
       </c>
-      <c r="N45" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
+      <c r="N47" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I51" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N51" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4324,8 +4717,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D3412F-17D0-4050-BBAC-8B8C9C96D0DA}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E6DC8D-C5B2-4592-B493-8A193A53D9D0}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4341,7 +4734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4454,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4469,7 +4862,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4484,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4892,13 @@
         <v>376062</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>340</v>
@@ -4514,13 +4907,13 @@
         <v>347293</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>713</v>
@@ -4529,13 +4922,13 @@
         <v>723355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4943,13 @@
         <v>15077</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4565,13 +4958,13 @@
         <v>9999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M6" s="7">
         <v>24</v>
@@ -4580,13 +4973,13 @@
         <v>25075</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4994,13 @@
         <v>24261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4616,13 +5009,13 @@
         <v>16803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4631,13 +5024,13 @@
         <v>41064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +5045,13 @@
         <v>38745</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4667,13 +5060,13 @@
         <v>56136</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>92</v>
@@ -4682,13 +5075,13 @@
         <v>94881</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4807,13 +5200,13 @@
         <v>312954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -4822,13 +5215,13 @@
         <v>345950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -4837,13 +5230,13 @@
         <v>658904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +5251,13 @@
         <v>61109</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7">
         <v>43</v>
@@ -4873,13 +5266,13 @@
         <v>48633</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M12" s="7">
         <v>101</v>
@@ -4888,13 +5281,13 @@
         <v>109742</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +5302,13 @@
         <v>57542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4924,13 +5317,13 @@
         <v>41582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -4939,13 +5332,13 @@
         <v>99124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +5353,13 @@
         <v>255481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>163</v>
@@ -4975,13 +5368,13 @@
         <v>174091</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>410</v>
@@ -4990,13 +5383,13 @@
         <v>429572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,13 +5508,13 @@
         <v>271706</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>404</v>
@@ -5130,13 +5523,13 @@
         <v>435530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="M17" s="7">
         <v>660</v>
@@ -5145,13 +5538,13 @@
         <v>707235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5559,13 @@
         <v>55987</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5181,13 +5574,13 @@
         <v>46448</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -5196,13 +5589,13 @@
         <v>102434</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5610,13 @@
         <v>59604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -5232,13 +5625,13 @@
         <v>57488</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -5247,13 +5640,13 @@
         <v>117092</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5661,13 @@
         <v>294566</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -5283,13 +5676,13 @@
         <v>171385</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -5298,13 +5691,13 @@
         <v>465950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5393,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5408,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5816,13 @@
         <v>255429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H23" s="7">
         <v>355</v>
@@ -5438,13 +5831,13 @@
         <v>401312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="M23" s="7">
         <v>584</v>
@@ -5453,13 +5846,13 @@
         <v>656741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5867,13 @@
         <v>34536</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -5489,13 +5882,13 @@
         <v>39736</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -5504,13 +5897,13 @@
         <v>74271</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5918,13 @@
         <v>52433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5540,13 +5933,13 @@
         <v>34102</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5555,13 +5948,13 @@
         <v>86535</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5969,13 @@
         <v>272219</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>121</v>
@@ -5591,13 +5984,13 @@
         <v>141050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>361</v>
@@ -5606,13 +5999,13 @@
         <v>413269</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +6094,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5731,13 +6124,13 @@
         <v>275114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7">
         <v>348</v>
@@ -5746,13 +6139,13 @@
         <v>383505</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7">
         <v>597</v>
@@ -5761,13 +6154,13 @@
         <v>658619</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +6175,13 @@
         <v>16324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -5797,13 +6190,13 @@
         <v>8753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -5812,13 +6205,13 @@
         <v>25078</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +6226,13 @@
         <v>21339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -5848,13 +6241,13 @@
         <v>8051</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -5863,13 +6256,13 @@
         <v>29390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5884,13 +6277,13 @@
         <v>116651</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H32" s="7">
         <v>43</v>
@@ -5899,13 +6292,13 @@
         <v>47491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M32" s="7">
         <v>153</v>
@@ -5914,13 +6307,13 @@
         <v>164142</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6009,7 +6402,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6024,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,49 +6426,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>501</v>
+        <v>279</v>
       </c>
       <c r="D35" s="7">
-        <v>556621</v>
+        <v>306770</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H35" s="7">
-        <v>691</v>
+        <v>341</v>
       </c>
       <c r="I35" s="7">
-        <v>740137</v>
+        <v>351158</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M35" s="7">
-        <v>1192</v>
+        <v>620</v>
       </c>
       <c r="N35" s="7">
-        <v>1296758</v>
+        <v>657928</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6483,13 @@
         <v>1000</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6105,13 +6498,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6120,13 +6513,13 @@
         <v>1890</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6162,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6177,7 +6570,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6585,13 @@
         <v>2017</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -6207,13 +6600,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6222,13 +6615,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6237,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D39" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -6252,10 +6645,10 @@
         <v>19</v>
       </c>
       <c r="H39" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I39" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>19</v>
@@ -6267,10 +6660,10 @@
         <v>19</v>
       </c>
       <c r="M39" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N39" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -6284,7 +6677,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6302,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6317,7 +6710,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6332,7 +6725,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,49 +6734,49 @@
         <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>1913</v>
+        <v>222</v>
       </c>
       <c r="D41" s="7">
-        <v>2047887</v>
+        <v>249851</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="H41" s="7">
-        <v>2463</v>
+        <v>350</v>
       </c>
       <c r="I41" s="7">
-        <v>2653726</v>
+        <v>388979</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="M41" s="7">
-        <v>4376</v>
+        <v>572</v>
       </c>
       <c r="N41" s="7">
-        <v>4701612</v>
+        <v>638830</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>17</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,49 +6785,49 @@
         <v>22</v>
       </c>
       <c r="C42" s="7">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>184033</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>272</v>
-      </c>
       <c r="H42" s="7">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>154458</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M42" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>338491</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,49 +6836,49 @@
         <v>23</v>
       </c>
       <c r="C43" s="7">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>215180</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H43" s="7">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>158026</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="M43" s="7">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>373205</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>286</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,49 +6887,49 @@
         <v>24</v>
       </c>
       <c r="C44" s="7">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>979680</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>592100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="M44" s="7">
-        <v>1471</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>1571779</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>295</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,63 +6938,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>222</v>
+      </c>
+      <c r="D45" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="7">
+        <v>350</v>
+      </c>
+      <c r="I45" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="7">
+        <v>572</v>
+      </c>
+      <c r="N45" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1913</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2047887</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2463</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2653726</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M47" s="7">
+        <v>4376</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4701612</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7">
+        <v>171</v>
+      </c>
+      <c r="D48" s="7">
+        <v>184033</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H48" s="7">
+        <v>138</v>
+      </c>
+      <c r="I48" s="7">
+        <v>154458</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M48" s="7">
+        <v>309</v>
+      </c>
+      <c r="N48" s="7">
+        <v>338491</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>202</v>
+      </c>
+      <c r="D49" s="7">
+        <v>215180</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H49" s="7">
+        <v>149</v>
+      </c>
+      <c r="I49" s="7">
+        <v>158026</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M49" s="7">
+        <v>351</v>
+      </c>
+      <c r="N49" s="7">
+        <v>373205</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7">
+        <v>923</v>
+      </c>
+      <c r="D50" s="7">
+        <v>979680</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H50" s="7">
+        <v>548</v>
+      </c>
+      <c r="I50" s="7">
+        <v>592100</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1471</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1571779</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3209</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3426779</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="7">
         <v>3298</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3558309</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="7">
         <v>6507</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6985088</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
+      <c r="O51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6614,8 +7316,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5246F7-83E5-4226-BE61-8898EAC04ADC}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4809F3BC-2867-4BF2-BF98-AC7BF86F481F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6631,7 +7333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6759,7 +7461,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6789,13 +7491,13 @@
         <v>340354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>311</v>
@@ -6804,13 +7506,13 @@
         <v>303900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>630</v>
@@ -6819,13 +7521,13 @@
         <v>644254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,13 +7542,13 @@
         <v>26496</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -6855,13 +7557,13 @@
         <v>26455</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>51</v>
@@ -6870,13 +7572,13 @@
         <v>52951</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +7593,13 @@
         <v>17554</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -6906,13 +7608,13 @@
         <v>22511</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -6921,13 +7623,13 @@
         <v>40065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +7644,13 @@
         <v>35060</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -6957,13 +7659,13 @@
         <v>42888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>77</v>
@@ -6972,13 +7674,13 @@
         <v>77948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,7 +7754,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7067,7 +7769,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7082,7 +7784,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7799,13 @@
         <v>246311</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -7112,13 +7814,13 @@
         <v>289828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -7127,13 +7829,13 @@
         <v>536138</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7850,13 @@
         <v>96413</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>87</v>
@@ -7163,13 +7865,13 @@
         <v>82933</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>176</v>
@@ -7178,13 +7880,13 @@
         <v>179346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7199,13 +7901,13 @@
         <v>72979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -7214,13 +7916,13 @@
         <v>50842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -7229,13 +7931,13 @@
         <v>123821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7952,13 @@
         <v>174793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>143</v>
@@ -7265,13 +7967,13 @@
         <v>139942</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>313</v>
@@ -7280,13 +7982,13 @@
         <v>314735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,7 +8062,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7405,13 +8107,13 @@
         <v>209509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>346</v>
@@ -7420,13 +8122,13 @@
         <v>343972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>547</v>
@@ -7435,13 +8137,13 @@
         <v>553481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +8158,13 @@
         <v>96462</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="H18" s="7">
         <v>84</v>
@@ -7471,13 +8173,13 @@
         <v>81510</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M18" s="7">
         <v>174</v>
@@ -7486,13 +8188,13 @@
         <v>177972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +8209,13 @@
         <v>113864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
         <v>72</v>
@@ -7522,13 +8224,13 @@
         <v>69758</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -7537,13 +8239,13 @@
         <v>183622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +8260,13 @@
         <v>249262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>163</v>
@@ -7573,13 +8275,13 @@
         <v>166146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -7588,13 +8290,13 @@
         <v>415408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,7 +8370,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7698,7 +8400,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +8415,13 @@
         <v>278320</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>379</v>
@@ -7728,13 +8430,13 @@
         <v>405959</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>630</v>
@@ -7743,13 +8445,13 @@
         <v>684279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,13 +8466,13 @@
         <v>84772</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -7779,13 +8481,13 @@
         <v>74545</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>143</v>
@@ -7794,13 +8496,13 @@
         <v>159317</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7815,13 +8517,13 @@
         <v>70199</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -7830,13 +8532,13 @@
         <v>48918</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -7845,13 +8547,13 @@
         <v>119117</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,13 +8568,13 @@
         <v>212757</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>110</v>
@@ -7881,13 +8583,13 @@
         <v>119655</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>301</v>
@@ -7896,13 +8598,13 @@
         <v>332411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,7 +8678,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7991,7 +8693,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -8006,7 +8708,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8723,13 @@
         <v>312192</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>343</v>
@@ -8036,13 +8738,13 @@
         <v>390970</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>621</v>
@@ -8051,13 +8753,13 @@
         <v>703162</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8774,13 @@
         <v>39452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -8087,13 +8789,13 @@
         <v>32245</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -8102,13 +8804,13 @@
         <v>71697</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8825,13 @@
         <v>28576</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -8138,13 +8840,13 @@
         <v>27836</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -8153,13 +8855,13 @@
         <v>56412</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8876,13 @@
         <v>97698</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -8189,13 +8891,13 @@
         <v>45797</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>125</v>
@@ -8204,13 +8906,13 @@
         <v>143496</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,7 +8986,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8299,7 +9001,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -8314,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,49 +9025,49 @@
         <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>621</v>
+        <v>320</v>
       </c>
       <c r="D35" s="7">
-        <v>585343</v>
+        <v>329140</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>18</v>
+        <v>484</v>
       </c>
       <c r="H35" s="7">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="I35" s="7">
-        <v>772741</v>
+        <v>372572</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="M35" s="7">
-        <v>1271</v>
+        <v>669</v>
       </c>
       <c r="N35" s="7">
-        <v>1358083</v>
+        <v>701711</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,7 +9088,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8401,7 +9103,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>34</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8416,7 +9118,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,13 +9133,13 @@
         <v>1050</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -8446,13 +9148,13 @@
         <v>2203</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -8461,13 +9163,13 @@
         <v>3253</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8476,19 +9178,19 @@
         <v>24</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="7">
-        <v>4935</v>
+        <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -8497,28 +9199,28 @@
         <v>2987</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>13</v>
+        <v>498</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="M38" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>7922</v>
+        <v>7127</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>26</v>
+        <v>501</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8527,10 +9229,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D39" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -8542,10 +9244,10 @@
         <v>19</v>
       </c>
       <c r="H39" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I39" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>19</v>
@@ -8557,10 +9259,10 @@
         <v>19</v>
       </c>
       <c r="M39" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N39" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -8574,7 +9276,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -8592,7 +9294,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8607,7 +9309,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>52</v>
+        <v>503</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -8622,7 +9324,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8631,49 +9333,49 @@
         <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>1908</v>
+        <v>301</v>
       </c>
       <c r="D41" s="7">
-        <v>1972028</v>
+        <v>256203</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>479</v>
+        <v>35</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>481</v>
+        <v>17</v>
       </c>
       <c r="H41" s="7">
-        <v>2325</v>
+        <v>301</v>
       </c>
       <c r="I41" s="7">
-        <v>2507370</v>
+        <v>400169</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>482</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>484</v>
+        <v>19</v>
       </c>
       <c r="M41" s="7">
-        <v>4233</v>
+        <v>602</v>
       </c>
       <c r="N41" s="7">
-        <v>4479398</v>
+        <v>656372</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>487</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8682,49 +9384,49 @@
         <v>22</v>
       </c>
       <c r="C42" s="7">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>343595</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>488</v>
+        <v>11</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>489</v>
+        <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="H42" s="7">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
-        <v>297688</v>
+        <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="M42" s="7">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>641283</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>448</v>
+        <v>11</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>418</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>492</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8733,49 +9435,49 @@
         <v>23</v>
       </c>
       <c r="C43" s="7">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>304222</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>493</v>
+        <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>494</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>222067</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>496</v>
+        <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M43" s="7">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>526290</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>499</v>
+        <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,49 +9486,49 @@
         <v>24</v>
       </c>
       <c r="C44" s="7">
-        <v>724</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>774505</v>
+        <v>795</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>500</v>
+        <v>33</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="H44" s="7">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>517416</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="M44" s="7">
-        <v>1225</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>1291921</v>
+        <v>795</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>505</v>
+        <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>343</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8835,63 +9537,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>302</v>
+      </c>
+      <c r="D45" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="7">
+        <v>301</v>
+      </c>
+      <c r="I45" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="7">
+        <v>603</v>
+      </c>
+      <c r="N45" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1908</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1972028</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2325</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2507370</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="M47" s="7">
+        <v>4233</v>
+      </c>
+      <c r="N47" s="7">
+        <v>4479398</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7">
+        <v>313</v>
+      </c>
+      <c r="D48" s="7">
+        <v>343595</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H48" s="7">
+        <v>293</v>
+      </c>
+      <c r="I48" s="7">
+        <v>297688</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M48" s="7">
+        <v>606</v>
+      </c>
+      <c r="N48" s="7">
+        <v>641283</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>286</v>
+      </c>
+      <c r="D49" s="7">
+        <v>304222</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H49" s="7">
+        <v>219</v>
+      </c>
+      <c r="I49" s="7">
+        <v>222067</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="M49" s="7">
+        <v>505</v>
+      </c>
+      <c r="N49" s="7">
+        <v>526290</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7">
+        <v>724</v>
+      </c>
+      <c r="D50" s="7">
+        <v>774505</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H50" s="7">
+        <v>501</v>
+      </c>
+      <c r="I50" s="7">
+        <v>517416</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1225</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1291921</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3231</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>3394350</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="7">
         <v>3338</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3544542</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="7">
         <v>6569</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6938892</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
+      <c r="O51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -8904,8 +9915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B8EA15-C826-45D0-8199-87673CE44DF8}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04C197E-5210-4446-B465-42B22B6B310F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8921,7 +9932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9025,13 +10036,13 @@
         <v>172</v>
       </c>
       <c r="D4" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -9040,13 +10051,13 @@
         <v>207</v>
       </c>
       <c r="I4" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>538</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>19</v>
@@ -9055,13 +10066,13 @@
         <v>379</v>
       </c>
       <c r="N4" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -9085,7 +10096,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9100,7 +10111,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>541</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9115,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,7 +10147,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9151,7 +10162,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>541</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9166,7 +10177,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9187,7 +10198,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9202,7 +10213,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>541</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9217,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9238,7 +10249,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9253,7 +10264,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>541</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9268,7 +10279,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9280,7 +10291,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -9295,7 +10306,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -9310,7 +10321,7 @@
         <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -9333,13 +10344,13 @@
         <v>302</v>
       </c>
       <c r="D10" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -9348,13 +10359,13 @@
         <v>461</v>
       </c>
       <c r="I10" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -9363,13 +10374,13 @@
         <v>763</v>
       </c>
       <c r="N10" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -9393,7 +10404,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9408,7 +10419,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -9423,7 +10434,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,7 +10455,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9459,7 +10470,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9474,7 +10485,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>514</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9495,7 +10506,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -9510,7 +10521,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9525,7 +10536,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>514</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9546,7 +10557,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>512</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9561,7 +10572,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9576,7 +10587,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9588,7 +10599,7 @@
         <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -9603,7 +10614,7 @@
         <v>461</v>
       </c>
       <c r="I15" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -9618,7 +10629,7 @@
         <v>763</v>
       </c>
       <c r="N15" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -9641,13 +10652,13 @@
         <v>546</v>
       </c>
       <c r="D16" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>19</v>
@@ -9656,13 +10667,13 @@
         <v>848</v>
       </c>
       <c r="I16" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>19</v>
@@ -9671,13 +10682,13 @@
         <v>1394</v>
       </c>
       <c r="N16" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>19</v>
@@ -9701,7 +10712,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -9716,7 +10727,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -9731,7 +10742,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9752,7 +10763,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -9767,7 +10778,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -9782,7 +10793,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9803,7 +10814,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -9818,7 +10829,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9833,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,7 +10865,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9869,7 +10880,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9884,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9896,7 +10907,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -9911,7 +10922,7 @@
         <v>848</v>
       </c>
       <c r="I21" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -9926,7 +10937,7 @@
         <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -9949,7 +10960,7 @@
         <v>665</v>
       </c>
       <c r="D22" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>17</v>
@@ -9964,13 +10975,13 @@
         <v>1141</v>
       </c>
       <c r="I22" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>19</v>
@@ -9979,13 +10990,13 @@
         <v>1806</v>
       </c>
       <c r="N22" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>19</v>
@@ -10024,7 +11035,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10039,7 +11050,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10075,7 +11086,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10090,7 +11101,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10126,7 +11137,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10141,7 +11152,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10177,7 +11188,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10192,7 +11203,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10204,7 +11215,7 @@
         <v>665</v>
       </c>
       <c r="D27" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -10219,7 +11230,7 @@
         <v>1141</v>
       </c>
       <c r="I27" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -10234,7 +11245,7 @@
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -10257,7 +11268,7 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>17</v>
@@ -10272,7 +11283,7 @@
         <v>1002</v>
       </c>
       <c r="I28" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>17</v>
@@ -10287,13 +11298,13 @@
         <v>1665</v>
       </c>
       <c r="N28" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>506</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>19</v>
@@ -10347,7 +11358,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,7 +11409,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,7 +11460,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10500,7 +11511,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10512,7 +11523,7 @@
         <v>663</v>
       </c>
       <c r="D33" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>19</v>
@@ -10527,7 +11538,7 @@
         <v>1002</v>
       </c>
       <c r="I33" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>19</v>
@@ -10542,7 +11553,7 @@
         <v>1665</v>
       </c>
       <c r="N33" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>19</v>
@@ -10562,46 +11573,46 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D34" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I34" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M34" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N34" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>19</v>
@@ -10625,7 +11636,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10640,7 +11651,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10655,7 +11666,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10676,7 +11687,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10691,7 +11702,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -10706,7 +11717,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,7 +11738,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10742,7 +11753,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -10757,7 +11768,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10778,7 +11789,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10793,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -10808,7 +11819,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10817,10 +11828,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -10832,10 +11843,10 @@
         <v>19</v>
       </c>
       <c r="H39" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I39" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>19</v>
@@ -10847,10 +11858,10 @@
         <v>19</v>
       </c>
       <c r="M39" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N39" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -10864,52 +11875,52 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>3376</v>
+        <v>458</v>
       </c>
       <c r="D40" s="7">
-        <v>3385228</v>
+        <v>282759</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="7">
-        <v>5367</v>
+        <v>881</v>
       </c>
       <c r="I40" s="7">
-        <v>3835581</v>
+        <v>425831</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M40" s="7">
-        <v>8743</v>
+        <v>1339</v>
       </c>
       <c r="N40" s="7">
-        <v>7220809</v>
+        <v>708590</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>19</v>
@@ -10933,7 +11944,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10948,7 +11959,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>526</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -10963,7 +11974,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10984,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10999,7 +12010,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>526</v>
+        <v>67</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -11014,7 +12025,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11035,7 +12046,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11050,7 +12061,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>526</v>
+        <v>67</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11065,7 +12076,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11086,7 +12097,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -11101,7 +12112,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>526</v>
+        <v>67</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -11116,7 +12127,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11125,63 +12136,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>458</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="7">
+        <v>881</v>
+      </c>
+      <c r="I45" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N45" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
         <v>3376</v>
       </c>
-      <c r="D45" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D46" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="7">
         <v>5367</v>
       </c>
-      <c r="I45" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I46" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="7">
         <v>8743</v>
       </c>
-      <c r="N45" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
+      <c r="N46" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I51" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N51" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
